--- a/target/classes/TestDataFromExcel/FreeCRMtestData.xlsx
+++ b/target/classes/TestDataFromExcel/FreeCRMtestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\java\TestDataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B1E9F-54C5-4564-B3D9-CA0615D30D0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA16FF8-7FE2-424B-9720-C7F8119D8B3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3ACCB42-7CF9-48A8-B60F-60C743833AD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B3ACCB42-7CF9-48A8-B60F-60C743833AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="TermsNew" sheetId="2" r:id="rId2"/>
+    <sheet name="TermsEdit" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -73,16 +74,115 @@
     <t>Code1</t>
   </si>
   <si>
-    <t>Code1Upa</t>
-  </si>
-  <si>
-    <t>Code2Upa</t>
-  </si>
-  <si>
-    <t>Name1Update</t>
-  </si>
-  <si>
-    <t>Name2Update</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>isChildTermDatesRuleEnforced</t>
+  </si>
+  <si>
+    <t>revenueUnits</t>
+  </si>
+  <si>
+    <t>QAAC419-20</t>
+  </si>
+  <si>
+    <t>2019/09/01 00:00:00</t>
+  </si>
+  <si>
+    <t>isOnlineUsageAllowed</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>faAcademicCalendar</t>
+  </si>
+  <si>
+    <t>isAttendanceRecorded</t>
+  </si>
+  <si>
+    <t>isExcludedCrmIntegration</t>
+  </si>
+  <si>
+    <t>isGlobalExtractTerm</t>
+  </si>
+  <si>
+    <t>isPrePullRequiredForGlobal</t>
+  </si>
+  <si>
+    <t>isSapTerm</t>
+  </si>
+  <si>
+    <t>isStandardTerm</t>
+  </si>
+  <si>
+    <t>isTermOpen</t>
+  </si>
+  <si>
+    <t>isTermSuspendLiftedCampusLinkAmbassador</t>
+  </si>
+  <si>
+    <t>!!!!Tracks1899</t>
+  </si>
+  <si>
+    <t>numberOfDaysAfterTermStartDate</t>
+  </si>
+  <si>
+    <t>numberOfDaysPriorToTermStartDate</t>
+  </si>
+  <si>
+    <t>sapCalcDaysAfterTermEnd</t>
+  </si>
+  <si>
+    <t>scheduleChangesType</t>
+  </si>
+  <si>
+    <t>sendCourseSectionDataInitialDoneToLms</t>
+  </si>
+  <si>
+    <t>sendCourseSectionDataToLms</t>
+  </si>
+  <si>
+    <t>sendInstructorAssignmentsInitialDoneToLms</t>
+  </si>
+  <si>
+    <t>sendInstructorAssignmentsToLms</t>
+  </si>
+  <si>
+    <t>sendStudentRegistrationDataInitialDoneToLms</t>
+  </si>
+  <si>
+    <t>sendStudentRegistrationDataToLms</t>
+  </si>
+  <si>
+    <t>shiftId</t>
+  </si>
+  <si>
+    <t>standardTermType</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>termUsage</t>
+  </si>
+  <si>
+    <t>summerHeaderOrTrailer</t>
+  </si>
+  <si>
+    <t>2045/09/01 00:00:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>!!!!Tracks1899Updated</t>
   </si>
 </sst>
 </file>
@@ -447,15 +547,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94113302-FA57-4EAD-8E1E-B7164C57D8D5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -569,103 +669,1138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F3950-E472-4263-8A00-F4AE4498A68E}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="3">
         <v>2</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="3">
+        <v>2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="3">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B636FD3B-53CF-4795-863C-443CA383DD9F}">
+  <dimension ref="A1:AH5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
+      <c r="AH2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="3">
         <v>2</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3">
+    <row r="4" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="3">
+        <v>2</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/TestDataFromExcel/FreeCRMtestData.xlsx
+++ b/target/classes/TestDataFromExcel/FreeCRMtestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\java\TestDataFromExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GopalBackUp\WorkSpace\APIRestAssuredToolsQA\src\main\BaseClasses\TestDataFromExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA16FF8-7FE2-424B-9720-C7F8119D8B3C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79B5359-379B-4301-96D5-9AC29FFF7243}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B3ACCB42-7CF9-48A8-B60F-60C743833AD3}"/>
   </bookViews>
@@ -672,7 +672,7 @@
   <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
